--- a/src/test/testData/SearchTestData.xlsx
+++ b/src/test/testData/SearchTestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Udemy\SportStop\07f2d9b8-2943-4c88-9c61-b86b3d865511\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B96B8A-F164-4D34-BB06-53529A705126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C9B42-2D7D-4082-8F56-1BE7FEF19543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{AEA35227-B1F9-4BAA-B906-41426B2CBB6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SearchKey</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>1 Bed</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -393,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7E24BD-FE0F-42BC-811F-E22A8A942DE5}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F14A95-A363-4B41-815C-B246D763FEB2}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -417,6 +420,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
